--- a/rawdatafiles/crtb_lm_sim_runtimes.xlsx
+++ b/rawdatafiles/crtb_lm_sim_runtimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mackson Ncube\Desktop\Research\MightyMetrika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF2D2B7-44FB-45C2-A94D-BEBBB25138A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1284CB7-EF44-4466-AC45-BCB26E6A33EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{668F8F3C-D9C7-4DC1-B492-6C844653B965}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="10668" windowHeight="12960" xr2:uid="{668F8F3C-D9C7-4DC1-B492-6C844653B965}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>B</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1157.42   16.89 1175.29 </t>
+  </si>
+  <si>
+    <t>11501.36   164.76 11670.20</t>
+  </si>
+  <si>
+    <t>Error: cannot allocate vector of size 0 KbTiming stopped at: 1.581e+04 422.9 1.777e+04</t>
   </si>
 </sst>
 </file>
@@ -521,9 +530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B80FF-0015-42BE-8575-7D6454336D0F}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1342,6 +1353,66 @@
         <v>31</v>
       </c>
     </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>5000</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>1157.42</v>
+      </c>
+      <c r="E38">
+        <v>16.89</v>
+      </c>
+      <c r="F38">
+        <v>1175.29</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>5000</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39">
+        <v>11501.36</v>
+      </c>
+      <c r="E39">
+        <v>164.76</v>
+      </c>
+      <c r="F39">
+        <v>11670.2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>5000</v>
+      </c>
+      <c r="C40">
+        <v>2000</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
